--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H2">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I2">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J2">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N2">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P2">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q2">
-        <v>120.2482658315523</v>
+        <v>291.5534012474179</v>
       </c>
       <c r="R2">
-        <v>120.2482658315523</v>
+        <v>2623.980611226762</v>
       </c>
       <c r="S2">
-        <v>0.002052664413677566</v>
+        <v>0.004594915007502116</v>
       </c>
       <c r="T2">
-        <v>0.002052664413677566</v>
+        <v>0.004594915007502116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H3">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I3">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J3">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N3">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P3">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q3">
-        <v>8315.196629927541</v>
+        <v>9513.88441987355</v>
       </c>
       <c r="R3">
-        <v>8315.196629927541</v>
+        <v>85624.95977886194</v>
       </c>
       <c r="S3">
-        <v>0.1419422400560332</v>
+        <v>0.149939908481533</v>
       </c>
       <c r="T3">
-        <v>0.1419422400560332</v>
+        <v>0.1499399084815331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H4">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I4">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J4">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N4">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P4">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q4">
-        <v>21.66902114342529</v>
+        <v>25.97086310871</v>
       </c>
       <c r="R4">
-        <v>21.66902114342529</v>
+        <v>233.73776797839</v>
       </c>
       <c r="S4">
-        <v>0.0003698949691519362</v>
+        <v>0.0004093037781257971</v>
       </c>
       <c r="T4">
-        <v>0.0003698949691519362</v>
+        <v>0.0004093037781257971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.59314703740959</v>
+        <v>107.928617</v>
       </c>
       <c r="H5">
-        <v>95.59314703740959</v>
+        <v>323.785851</v>
       </c>
       <c r="I5">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="J5">
-        <v>0.1940467033970478</v>
+        <v>0.2068777607879145</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N5">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P5">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q5">
-        <v>2910.443009765119</v>
+        <v>3295.257358926379</v>
       </c>
       <c r="R5">
-        <v>2910.443009765119</v>
+        <v>29657.31623033742</v>
       </c>
       <c r="S5">
-        <v>0.04968190395818508</v>
+        <v>0.05193363352075353</v>
       </c>
       <c r="T5">
-        <v>0.04968190395818508</v>
+        <v>0.05193363352075353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>143.177403658757</v>
+        <v>143.300008</v>
       </c>
       <c r="H6">
-        <v>143.177403658757</v>
+        <v>429.900024</v>
       </c>
       <c r="I6">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J6">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N6">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P6">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q6">
-        <v>180.1053216659141</v>
+        <v>387.104049810832</v>
       </c>
       <c r="R6">
-        <v>180.1053216659141</v>
+        <v>3483.936448297488</v>
       </c>
       <c r="S6">
-        <v>0.003074437555843466</v>
+        <v>0.006100804176286011</v>
       </c>
       <c r="T6">
-        <v>0.003074437555843466</v>
+        <v>0.006100804176286011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>143.177403658757</v>
+        <v>143.300008</v>
       </c>
       <c r="H7">
-        <v>143.177403658757</v>
+        <v>429.900024</v>
       </c>
       <c r="I7">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J7">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N7">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P7">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q7">
-        <v>12454.32650019525</v>
+        <v>12631.86494346495</v>
       </c>
       <c r="R7">
-        <v>12454.32650019525</v>
+        <v>113686.7844911845</v>
       </c>
       <c r="S7">
-        <v>0.2125980996606131</v>
+        <v>0.1990796387664539</v>
       </c>
       <c r="T7">
-        <v>0.2125980996606131</v>
+        <v>0.1990796387664539</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>143.177403658757</v>
+        <v>143.300008</v>
       </c>
       <c r="H8">
-        <v>143.177403658757</v>
+        <v>429.900024</v>
       </c>
       <c r="I8">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J8">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N8">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P8">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q8">
-        <v>32.45540379508794</v>
+        <v>34.48228092504001</v>
       </c>
       <c r="R8">
-        <v>32.45540379508794</v>
+        <v>310.34052832536</v>
       </c>
       <c r="S8">
-        <v>0.0005540208995199681</v>
+        <v>0.0005434446980809265</v>
       </c>
       <c r="T8">
-        <v>0.0005540208995199681</v>
+        <v>0.0005434446980809265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>143.177403658757</v>
+        <v>143.300008</v>
       </c>
       <c r="H9">
-        <v>143.177403658757</v>
+        <v>429.900024</v>
       </c>
       <c r="I9">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="J9">
-        <v>0.2906390681965676</v>
+        <v>0.2746777045788536</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N9">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P9">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q9">
-        <v>4359.200283173774</v>
+        <v>4375.210384621246</v>
       </c>
       <c r="R9">
-        <v>4359.200283173774</v>
+        <v>39376.89346159121</v>
       </c>
       <c r="S9">
-        <v>0.07441251008059103</v>
+        <v>0.06895381693803275</v>
       </c>
       <c r="T9">
-        <v>0.07441251008059103</v>
+        <v>0.06895381693803275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>118.475757479524</v>
+        <v>134.5459086666667</v>
       </c>
       <c r="H10">
-        <v>118.475757479524</v>
+        <v>403.637726</v>
       </c>
       <c r="I10">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505474</v>
       </c>
       <c r="J10">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505473</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N10">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P10">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q10">
-        <v>149.0326955594115</v>
+        <v>363.4561285603347</v>
       </c>
       <c r="R10">
-        <v>149.0326955594115</v>
+        <v>3271.105157043012</v>
       </c>
       <c r="S10">
-        <v>0.002544020976383818</v>
+        <v>0.005728110227989634</v>
       </c>
       <c r="T10">
-        <v>0.002544020976383818</v>
+        <v>0.005728110227989633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>118.475757479524</v>
+        <v>134.5459086666667</v>
       </c>
       <c r="H11">
-        <v>118.475757479524</v>
+        <v>403.637726</v>
       </c>
       <c r="I11">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505474</v>
       </c>
       <c r="J11">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505473</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N11">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P11">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q11">
-        <v>10305.64689889664</v>
+        <v>11860.19296644494</v>
       </c>
       <c r="R11">
-        <v>10305.64689889664</v>
+        <v>106741.7366980045</v>
       </c>
       <c r="S11">
-        <v>0.1759196650613237</v>
+        <v>0.1869179999966525</v>
       </c>
       <c r="T11">
-        <v>0.1759196650613237</v>
+        <v>0.1869179999966525</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>118.475757479524</v>
+        <v>134.5459086666667</v>
       </c>
       <c r="H12">
-        <v>118.475757479524</v>
+        <v>403.637726</v>
       </c>
       <c r="I12">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505474</v>
       </c>
       <c r="J12">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505473</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N12">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P12">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q12">
-        <v>26.85604327685184</v>
+        <v>32.37578200246001</v>
       </c>
       <c r="R12">
-        <v>26.85604327685184</v>
+        <v>291.38203802214</v>
       </c>
       <c r="S12">
-        <v>0.0004584385807592547</v>
+        <v>0.0005102460337153686</v>
       </c>
       <c r="T12">
-        <v>0.0004584385807592547</v>
+        <v>0.0005102460337153685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>118.475757479524</v>
+        <v>134.5459086666667</v>
       </c>
       <c r="H13">
-        <v>118.475757479524</v>
+        <v>403.637726</v>
       </c>
       <c r="I13">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505474</v>
       </c>
       <c r="J13">
-        <v>0.2404966347888189</v>
+        <v>0.2578978317505473</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N13">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P13">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q13">
-        <v>3607.130331716843</v>
+        <v>4107.931779087561</v>
       </c>
       <c r="R13">
-        <v>3607.130331716843</v>
+        <v>36971.38601178805</v>
       </c>
       <c r="S13">
-        <v>0.06157451017035209</v>
+        <v>0.06474147549218985</v>
       </c>
       <c r="T13">
-        <v>0.06157451017035209</v>
+        <v>0.06474147549218984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>135.38327719692</v>
+        <v>135.927831</v>
       </c>
       <c r="H14">
-        <v>135.38327719692</v>
+        <v>407.783493</v>
       </c>
       <c r="I14">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="J14">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.25791722061932</v>
+        <v>2.701354</v>
       </c>
       <c r="N14">
-        <v>1.25791722061932</v>
+        <v>8.104061999999999</v>
       </c>
       <c r="O14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="P14">
-        <v>0.01057819781394336</v>
+        <v>0.02221077311549548</v>
       </c>
       <c r="Q14">
-        <v>170.3009557698846</v>
+        <v>367.1891899831739</v>
       </c>
       <c r="R14">
-        <v>170.3009557698846</v>
+        <v>3304.702709848566</v>
       </c>
       <c r="S14">
-        <v>0.002907074868038508</v>
+        <v>0.005786943703717721</v>
       </c>
       <c r="T14">
-        <v>0.002907074868038508</v>
+        <v>0.005786943703717721</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>135.38327719692</v>
+        <v>135.927831</v>
       </c>
       <c r="H15">
-        <v>135.38327719692</v>
+        <v>407.783493</v>
       </c>
       <c r="I15">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="J15">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.98527967358849</v>
+        <v>88.14978533333333</v>
       </c>
       <c r="N15">
-        <v>86.98527967358849</v>
+        <v>264.449356</v>
       </c>
       <c r="O15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328104</v>
       </c>
       <c r="P15">
-        <v>0.7314849341480372</v>
+        <v>0.7247753838328105</v>
       </c>
       <c r="Q15">
-        <v>11776.35223010104</v>
+        <v>11982.00912347561</v>
       </c>
       <c r="R15">
-        <v>11776.35223010104</v>
+        <v>107838.0821112805</v>
       </c>
       <c r="S15">
-        <v>0.2010249293700671</v>
+        <v>0.188837836588171</v>
       </c>
       <c r="T15">
-        <v>0.2010249293700671</v>
+        <v>0.188837836588171</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>135.38327719692</v>
+        <v>135.927831</v>
       </c>
       <c r="H16">
-        <v>135.38327719692</v>
+        <v>407.783493</v>
       </c>
       <c r="I16">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="J16">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226679650319968</v>
+        <v>0.24063</v>
       </c>
       <c r="N16">
-        <v>0.226679650319968</v>
+        <v>0.72189</v>
       </c>
       <c r="O16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="P16">
-        <v>0.001906216197834999</v>
+        <v>0.001978481285600361</v>
       </c>
       <c r="Q16">
-        <v>30.68863393416913</v>
+        <v>32.70831397353</v>
       </c>
       <c r="R16">
-        <v>30.68863393416913</v>
+        <v>294.37482576177</v>
       </c>
       <c r="S16">
-        <v>0.0005238617484038401</v>
+        <v>0.0005154867756782693</v>
       </c>
       <c r="T16">
-        <v>0.0005238617484038401</v>
+        <v>0.0005154867756782693</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>135.38327719692</v>
+        <v>135.927831</v>
       </c>
       <c r="H17">
-        <v>135.38327719692</v>
+        <v>407.783493</v>
       </c>
       <c r="I17">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="J17">
-        <v>0.2748175936175657</v>
+        <v>0.2605467028826847</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.4461470300391</v>
+        <v>30.53182233333333</v>
       </c>
       <c r="N17">
-        <v>30.4461470300391</v>
+        <v>91.595467</v>
       </c>
       <c r="O17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="P17">
-        <v>0.2560306518401845</v>
+        <v>0.2510353617660938</v>
       </c>
       <c r="Q17">
-        <v>4121.899162945966</v>
+        <v>4150.124386247359</v>
       </c>
       <c r="R17">
-        <v>4121.899162945966</v>
+        <v>37351.11947622623</v>
       </c>
       <c r="S17">
-        <v>0.07036172763105628</v>
+        <v>0.06540643581511771</v>
       </c>
       <c r="T17">
-        <v>0.07036172763105628</v>
+        <v>0.06540643581511771</v>
       </c>
     </row>
   </sheetData>
